--- a/Other Docs/Full Parts List.xlsx
+++ b/Other Docs/Full Parts List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ992\Documents\My Projects\DAMPING_ADJUSTER\Planning Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ992\Documents\My Projects\DAMPING_ADJUSTER\Other Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B045CF5-77A9-4A96-9A82-871922DC3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F3502-DF95-4F35-89EB-81F54DF67083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
+    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>Part Num</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>JTAG Socket</t>
+  </si>
+  <si>
+    <t>Power and Signal Board Case Bottom</t>
+  </si>
+  <si>
+    <t>Power and signal board case top</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1416,33 @@
       </c>
       <c r="F38">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1031</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1032</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Other Docs/Full Parts List.xlsx
+++ b/Other Docs/Full Parts List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ992\Documents\My Projects\DAMPING_ADJUSTER\Other Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F3502-DF95-4F35-89EB-81F54DF67083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A8EF0-05D4-4F10-B6D5-AAB610537EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Assemblies" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parts!$A$1:$F$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Parts!$A$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -768,10 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -824,7 +825,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -844,7 +845,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -864,7 +865,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -884,7 +885,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -901,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -915,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -929,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -943,7 +944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1006</v>
       </c>
@@ -963,7 +964,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1007</v>
       </c>
@@ -983,7 +984,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1009</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1012</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1014</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1015</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1016</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1017</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1019</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1020</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1022</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1023</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1024</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1025</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1026</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1027</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1030</v>
       </c>
@@ -1440,13 +1441,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}"/>
+  <autoFilter ref="A1:F41" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3D Printed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Other Docs/Full Parts List.xlsx
+++ b/Other Docs/Full Parts List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ992\Documents\My Projects\DAMPING_ADJUSTER\Other Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A8EF0-05D4-4F10-B6D5-AAB610537EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE58E8-5100-4801-A997-26C41B6CD424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -902,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1010</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1013</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1018</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1025</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1028</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1029</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1030</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1031</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1032</v>
       </c>
@@ -1450,7 +1450,7 @@
   <autoFilter ref="A1:F41" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}">
     <filterColumn colId="2">
       <filters>
-        <filter val="3D Printed"/>
+        <filter val="Connector"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Other Docs/Full Parts List.xlsx
+++ b/Other Docs/Full Parts List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ992\Documents\My Projects\DAMPING_ADJUSTER\Other Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFE58E8-5100-4801-A997-26C41B6CD424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3813C16-C639-4DD4-B95B-9BD96E0A5ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1144EA35-95AE-4760-990E-F9170137133D}"/>
   </bookViews>
@@ -772,7 +772,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +885,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -902,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1010</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1013</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1018</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1025</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1028</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1029</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1030</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1031</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1032</v>
       </c>
@@ -1450,7 +1450,7 @@
   <autoFilter ref="A1:F41" xr:uid="{72027582-7337-45D0-8AEF-3D65ED56EAD2}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Connector"/>
+        <filter val="3D Printed"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
